--- a/individual_results/avey/260.xlsx
+++ b/individual_results/avey/260.xlsx
@@ -555,7 +555,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.2</v>
@@ -564,7 +564,7 @@
         <v>0.6</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>0.3333333333333333</v>
@@ -585,7 +585,7 @@
         <v>0.5</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N2" t="n">
         <v>0.5</v>
@@ -597,25 +597,25 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R2" t="n">
         <v>0.5</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T2" t="n">
         <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0.5</v>
       </c>
       <c r="W2" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
         <v>0.5</v>
@@ -637,7 +637,7 @@
         <v>1.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
         <v>0.5</v>
@@ -658,7 +658,7 @@
         <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
         <v>0.5</v>
@@ -670,25 +670,25 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R3" t="n">
         <v>0.5</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T3" t="n">
         <v>0.5</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V3" t="n">
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -700,7 +700,9 @@
       <c r="B4" t="n">
         <v>0.4</v>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="D4" t="n">
         <v>0.2857142857142858</v>
       </c>
@@ -708,13 +710,15 @@
         <v>0.857142857142857</v>
       </c>
       <c r="F4" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0.4</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.4</v>
+      </c>
       <c r="J4" t="n">
         <v>0.4</v>
       </c>
@@ -724,7 +728,9 @@
       <c r="L4" t="n">
         <v>0.5</v>
       </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.4</v>
+      </c>
       <c r="N4" t="n">
         <v>0.5</v>
       </c>
@@ -734,20 +740,26 @@
       <c r="P4" t="n">
         <v>0.5</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" t="n">
+        <v>0.2222222222222222</v>
+      </c>
       <c r="R4" t="n">
         <v>0.5</v>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="T4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="U4" t="inlineStr"/>
+      <c r="U4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
       <c r="V4" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="W4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -759,7 +771,9 @@
       <c r="B5" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="D5" t="n">
         <v>0.3846153846153846</v>
       </c>
@@ -767,13 +781,15 @@
         <v>1.153846153846154</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.4545454545454545</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
       <c r="J5" t="n">
         <v>0.4545454545454545</v>
       </c>
@@ -783,7 +799,9 @@
       <c r="L5" t="n">
         <v>0.5</v>
       </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>0.4545454545454545</v>
+      </c>
       <c r="N5" t="n">
         <v>0.5</v>
       </c>
@@ -793,20 +811,26 @@
       <c r="P5" t="n">
         <v>0.7142857142857143</v>
       </c>
-      <c r="Q5" t="inlineStr"/>
+      <c r="Q5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
       <c r="R5" t="n">
         <v>0.5</v>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>0.5</v>
+      </c>
       <c r="T5" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="U5" t="inlineStr"/>
+      <c r="U5" t="n">
+        <v>0.5555555555555556</v>
+      </c>
       <c r="V5" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -819,7 +843,7 @@
         <v>0.2754115523761866</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="D6" t="n">
         <v>0.1065437321815508</v>
@@ -828,7 +852,7 @@
         <v>1.070484165498204</v>
       </c>
       <c r="F6" t="n">
-        <v>0.52129602861432</v>
+        <v>0.6590018048024133</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -837,7 +861,7 @@
         <v>0.2754115523761866</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="J6" t="n">
         <v>0.2754115523761866</v>
@@ -849,7 +873,7 @@
         <v>0.2754115523761866</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="N6" t="n">
         <v>0.2754115523761866</v>
@@ -861,25 +885,25 @@
         <v>0.4491768952476267</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="R6" t="n">
         <v>0.2754115523761866</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="T6" t="n">
         <v>0.2754115523761866</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="V6" t="n">
         <v>0.6885288809404666</v>
       </c>
       <c r="W6" t="n">
-        <v>0.41311732856428</v>
+        <v>0.6885288809404666</v>
       </c>
     </row>
     <row r="7">

--- a/individual_results/avey/260.xlsx
+++ b/individual_results/avey/260.xlsx
@@ -561,7 +561,7 @@
         <v>0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F2" t="n">
         <v>0.3333333333333333</v>
@@ -591,10 +591,10 @@
         <v>0.5</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="Q2" t="n">
         <v>0.1428571428571428</v>
@@ -634,7 +634,7 @@
         <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>0.5</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" t="n">
         <v>0.5</v>
@@ -707,7 +707,7 @@
         <v>0.2857142857142858</v>
       </c>
       <c r="E4" t="n">
-        <v>0.857142857142857</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="F4" t="n">
         <v>0.5</v>
@@ -735,10 +735,10 @@
         <v>0.5</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="Q4" t="n">
         <v>0.2222222222222222</v>
@@ -778,7 +778,7 @@
         <v>0.3846153846153846</v>
       </c>
       <c r="E5" t="n">
-        <v>1.153846153846154</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="F5" t="n">
         <v>0.7142857142857143</v>
@@ -806,10 +806,10 @@
         <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="Q5" t="n">
         <v>0.3333333333333333</v>
@@ -849,7 +849,7 @@
         <v>0.1065437321815508</v>
       </c>
       <c r="E6" t="n">
-        <v>1.070484165498204</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="F6" t="n">
         <v>0.6590018048024133</v>
@@ -882,7 +882,7 @@
         <v>0.2754115523761866</v>
       </c>
       <c r="P6" t="n">
-        <v>0.4491768952476267</v>
+        <v>0.2754115523761866</v>
       </c>
       <c r="Q6" t="n">
         <v>0.2754115523761866</v>
@@ -1206,10 +1206,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q11" t="n">
         <v>3.5</v>
